--- a/uploads/Kriti_Mishra_Resume_1_extracted_data.xlsx
+++ b/uploads/Kriti_Mishra_Resume_1_extracted_data.xlsx
@@ -503,17 +503,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Six Sigma - Yellow Belt Certified, Developing Rewarding and Retaining valuable human capital, Strong Effective Communicator with exceptional interpersonal skills and hands on experience in induction of employees across the organization, Possess leadership skills, good at working in teams, hardworking person</t>
+          <t>Six Sigma - Yellow Belt Certified.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[{'degree': 'MBA-HR', 'college': 'Amity Business School', 'universityTier': 'Tier 2', 'yearOfPassing': 2011}, {'degree': 'B.A', 'college': 'Awadh Girls Degree College', 'universityTier': 'Tier 3', 'yearOfPassing': 2009}, {'degree': 'XII', 'college': 'Loreto Convent', 'universityTier': 'Tier 1', 'yearOfPassing': 2006}]</t>
+          <t>[{'degree': 'MBA-HR', 'university': 'Amity Business School', 'tier': 'Tier 2', 'year': '2011'}, {'degree': 'BA', 'university': 'Awadh Girls Degree College', 'tier': 'Tier 3', 'year': '2009'}, {'degree': 'XII', 'university': 'Loreto Convent', 'tier': 'Tier 1', 'year': '2006'}]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'title': 'Key Responsibilities', 'company': 'Infogain India Pvt Ltd', 'duration': 'February 2016 till date', 'description': 'Joining/Onboarding Organization Branding Employee Engagement HR One O Ones HR Business Partner for NetApp Account Rewards &amp; Recognition'}, {'title': 'Key Responsibilities', 'company': 'Centum Learning- Bharti Group', 'duration': 'Oct 2014 till February 2016', 'description': 'Working as Senior Executive HR handling joining to exit formalities. Leave Actuary data management Attrition Analysis Data management master data updation and maintenance Attendance record updation Salary &amp; Payroll Input to Finance Team Follow up from all the stake holders Transfer management hardship allowance and zone specific payout. Contract renewals/termination for on roll and off-roll associates Role change letters designation and address/employment proof generation. On boarding CFA Employee Engagement'}, {'title': 'Key Responsibilities', 'company': 'HCL Technologies Ltd', 'duration': 'Feb 2012 - Oct 2014', 'description': 'Programs for employee retention employee career development employee -satisfaction Handling C&amp;B related queries on performance appraisal bonus payout shadow CTC allowances etc for offshore and Onsite employees. Retention Strategies Conversion of Attrition to Retention by self-initiatives. Meeting the new hire in Training on weekly basis &amp; developing bond with them &amp; controlling attrition of new hire. Frequent feedbacks to be taken and analyzed on improving the work environment - Skip level meeting. Coordination of corporate induction handover of new employees Minimizing the repeatability of request raised in SSD/ Skip level/ 1:1 session Employee awareness of SSD &amp; usage of SSD Analyzing the Absconder data and calling them to join back. Making monthly attrition report &amp; taking actions to control it Organizing HR helpdesk in all centres Drafting ESS Letters for US expats specific to location and zone.'}]</t>
+          <t>[{'title': 'Key Responsibilities', 'company': 'Infogain India Pvt Ltd', 'years': 'February 2016 till date', 'description': 'Joining/OnboardingOrganization BrandingEmployee EngagementHR One O OnesHR Business Partner for NetApp AccountRewards &amp; Recognition'}, {'title': 'Key Responsibilities', 'company': 'Centum Learning- Bharti Group', 'years': 'Oct 2014 till February 2016', 'description': 'Working as Senior Executive HR, handling joining to exit formalities.Leave Actuary data managementAttrition AnalysisData management, master data updation and maintenanceAttendance record updation.Salary &amp; Payroll Input to Finance TeamFollow up from all the stake holdersTransfer management, hardship allowance and zone specific payout.Contract renewals/termination for on roll and off-roll associatesRole change letters, designation and address/employment proof generation.On boardingCFAEmployee Engagement'}, {'title': 'Key Responsibilities', 'company': 'HCL Technologies Ltd', 'years': 'Feb 2012 - Oct 2014', 'description': 'Programs for employee retention, employee career development, employee -satisfaction.Handling C&amp;B related queries on performance appraisal, bonus payout, shadow CTC, allowances etc. for offshore and Onsite employees.Retention Strategies, Conversion of Attrition to Retention by self-initiatives.Meeting the new hire in Training on weekly basis &amp; developing bond with them &amp; controlling attrition of new hire.Frequent feedbacks to be taken and analyzed on improving the work environment - Skip level meeting.Coordination of corporate induction, handover of new employees.Minimizing the repeatability of request raised in SSD/ Skip level/ 1:1 sessionEmployee awareness of SSD &amp; usage of SSD.Analyzing the Absconder data and calling them to join back.Making monthly attrition report &amp; taking actions to control it.Organizing HR helpdesk in all centresDrafting ESS Letters for US expats specific to location and zone.'}]</t>
         </is>
       </c>
     </row>
